--- a/Project Cashflow.xlsx
+++ b/Project Cashflow.xlsx
@@ -67,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -173,12 +173,12 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -496,84 +496,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0780B15-751A-4466-90EE-8BDAB37E004F}">
-  <dimension ref="B2:N17"/>
+  <dimension ref="A2:Y17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="25" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="6">
+        <v>43160</v>
+      </c>
       <c r="C2" s="6">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="D2" s="6">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="E2" s="6">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="F2" s="6">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="G2" s="6">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="H2" s="6">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="I2" s="6">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="J2" s="6">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="K2" s="6">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="L2" s="6">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="M2" s="6">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="N2" s="6">
-        <v>43497</v>
+        <v>43525</v>
+      </c>
+      <c r="O2" s="6">
+        <v>43556</v>
+      </c>
+      <c r="P2" s="6">
+        <v>43586</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>43617</v>
+      </c>
+      <c r="R2" s="6">
+        <v>43647</v>
+      </c>
+      <c r="S2" s="6">
+        <v>43678</v>
+      </c>
+      <c r="T2" s="6">
+        <v>43709</v>
+      </c>
+      <c r="U2" s="6">
+        <v>43739</v>
+      </c>
+      <c r="V2" s="6">
+        <v>43770</v>
+      </c>
+      <c r="W2" s="6">
+        <v>43800</v>
+      </c>
+      <c r="X2" s="6">
+        <v>43831</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>43862</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
-        <v>75000</v>
-      </c>
-      <c r="D3" s="2">
-        <v>75000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>75000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>75000</v>
-      </c>
-      <c r="G3" s="2">
-        <v>75000</v>
-      </c>
-      <c r="H3" s="2">
-        <v>75000</v>
-      </c>
-      <c r="I3" s="2">
-        <v>75000</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="2">
         <v>75000</v>
       </c>
@@ -589,26 +613,52 @@
       <c r="N3" s="2">
         <v>75000</v>
       </c>
+      <c r="O3" s="2">
+        <v>75000</v>
+      </c>
+      <c r="P3" s="2">
+        <v>75000</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>75000</v>
+      </c>
+      <c r="R3" s="2">
+        <v>75000</v>
+      </c>
+      <c r="S3" s="2">
+        <v>75000</v>
+      </c>
+      <c r="T3" s="2">
+        <v>75000</v>
+      </c>
+      <c r="U3" s="2">
+        <v>75000</v>
+      </c>
+      <c r="V3" s="2">
+        <v>75000</v>
+      </c>
+      <c r="W3" s="2">
+        <v>75000</v>
+      </c>
+      <c r="X3" s="2">
+        <v>75000</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>75000</v>
+      </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2">
-        <v>24000</v>
-      </c>
-      <c r="G4" s="2">
-        <v>24000</v>
-      </c>
-      <c r="H4" s="2">
-        <v>24000</v>
-      </c>
-      <c r="I4" s="2">
-        <v>24000</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="2">
         <v>24000</v>
       </c>
@@ -624,9 +674,43 @@
       <c r="N4" s="2">
         <v>24000</v>
       </c>
+      <c r="O4" s="2">
+        <v>24000</v>
+      </c>
+      <c r="P4" s="2">
+        <v>24000</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>24000</v>
+      </c>
+      <c r="R4" s="2">
+        <v>24000</v>
+      </c>
+      <c r="S4" s="2">
+        <v>24000</v>
+      </c>
+      <c r="T4" s="2">
+        <v>24000</v>
+      </c>
+      <c r="U4" s="2">
+        <v>24000</v>
+      </c>
+      <c r="V4" s="2">
+        <v>24000</v>
+      </c>
+      <c r="W4" s="2">
+        <v>24000</v>
+      </c>
+      <c r="X4" s="2">
+        <v>24000</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>24000</v>
+      </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -639,38 +723,53 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="B6" s="2">
+        <f>SUM(B3:B4)</f>
+        <v>0</v>
+      </c>
       <c r="C6" s="2">
-        <f>SUM(C3:C4)</f>
-        <v>75000</v>
+        <f t="shared" ref="C6:L6" si="0">SUM(C3:C4)</f>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:N6" si="0">SUM(D3:D4)</f>
-        <v>75000</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>99000</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>99000</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="0"/>
-        <v>99000</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>99000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
@@ -685,15 +784,60 @@
         <v>99000</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(M3:M4)</f>
         <v>99000</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(N3:N4)</f>
         <v>99000</v>
       </c>
+      <c r="O6" s="2">
+        <f>SUM(O3:O4)</f>
+        <v>99000</v>
+      </c>
+      <c r="P6" s="2">
+        <f>SUM(P3:P4)</f>
+        <v>99000</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>SUM(Q3:Q4)</f>
+        <v>99000</v>
+      </c>
+      <c r="R6" s="2">
+        <f>SUM(R3:R4)</f>
+        <v>99000</v>
+      </c>
+      <c r="S6" s="2">
+        <f>SUM(S3:S4)</f>
+        <v>99000</v>
+      </c>
+      <c r="T6" s="2">
+        <f>SUM(T3:T4)</f>
+        <v>99000</v>
+      </c>
+      <c r="U6" s="2">
+        <f>SUM(U3:U4)</f>
+        <v>99000</v>
+      </c>
+      <c r="V6" s="2">
+        <f>SUM(V3:V4)</f>
+        <v>99000</v>
+      </c>
+      <c r="W6" s="2">
+        <f>SUM(W3:W4)</f>
+        <v>99000</v>
+      </c>
+      <c r="X6" s="2">
+        <f>SUM(X3:X4)</f>
+        <v>99000</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>SUM(Y3:Y4)</f>
+        <v>99000</v>
+      </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -706,52 +850,102 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="B8" s="6">
+        <v>43160</v>
+      </c>
       <c r="C8" s="6">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="D8" s="6">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="E8" s="6">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="F8" s="6">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="G8" s="6">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="H8" s="6">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="I8" s="6">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="J8" s="6">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="K8" s="6">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="L8" s="6">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="M8" s="6">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="N8" s="6">
-        <v>43497</v>
+        <v>43525</v>
+      </c>
+      <c r="O8" s="6">
+        <v>43556</v>
+      </c>
+      <c r="P8" s="6">
+        <v>43586</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>43617</v>
+      </c>
+      <c r="R8" s="6">
+        <v>43647</v>
+      </c>
+      <c r="S8" s="6">
+        <v>43678</v>
+      </c>
+      <c r="T8" s="6">
+        <v>43709</v>
+      </c>
+      <c r="U8" s="6">
+        <v>43739</v>
+      </c>
+      <c r="V8" s="6">
+        <v>43770</v>
+      </c>
+      <c r="W8" s="6">
+        <v>43800</v>
+      </c>
+      <c r="X8" s="6">
+        <v>43831</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>43862</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="B9" s="2">
+        <v>46666.666666666599</v>
+      </c>
       <c r="C9" s="2">
         <v>46666.666666666599</v>
       </c>
@@ -788,13 +982,49 @@
       <c r="N9" s="2">
         <v>46666.666666666599</v>
       </c>
+      <c r="O9" s="2">
+        <v>46666.666666666599</v>
+      </c>
+      <c r="P9" s="2">
+        <v>46666.666666666599</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>46666.666666666599</v>
+      </c>
+      <c r="R9" s="2">
+        <v>46666.666666666599</v>
+      </c>
+      <c r="S9" s="2">
+        <v>46666.666666666599</v>
+      </c>
+      <c r="T9" s="2">
+        <v>46666.666666666599</v>
+      </c>
+      <c r="U9" s="2">
+        <v>46666.666666666599</v>
+      </c>
+      <c r="V9" s="2">
+        <v>46666.666666666599</v>
+      </c>
+      <c r="W9" s="2">
+        <v>46666.666666666599</v>
+      </c>
+      <c r="X9" s="2">
+        <v>46666.666666666599</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>46666.666666666599</v>
+      </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="B10" s="2">
+        <v>180000</v>
+      </c>
       <c r="C10" s="2">
-        <v>180000</v>
+        <v>1000</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
@@ -829,11 +1059,47 @@
       <c r="N10" s="2">
         <v>1000</v>
       </c>
+      <c r="O10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="U10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="X10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="B11" s="2">
+        <v>1000</v>
+      </c>
       <c r="C11" s="2">
         <v>1000</v>
       </c>
@@ -870,9 +1136,43 @@
       <c r="N11" s="2">
         <v>1000</v>
       </c>
+      <c r="O11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="X11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -885,17 +1185,32 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="B13" s="2">
+        <f>SUM(B9:B11)</f>
+        <v>227666.6666666666</v>
+      </c>
       <c r="C13" s="2">
-        <f>SUM(C9:C11)</f>
-        <v>227666.6666666666</v>
+        <f t="shared" ref="C13:L13" si="1">SUM(C9:C11)</f>
+        <v>48666.666666666599</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:N13" si="1">SUM(D9:D11)</f>
+        <f t="shared" si="1"/>
         <v>48666.666666666599</v>
       </c>
       <c r="E13" s="2">
@@ -915,11 +1230,11 @@
         <v>48666.666666666599</v>
       </c>
       <c r="I13" s="2">
+        <f>SUM(I9:I11)</f>
+        <v>48666.666666666599</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="1"/>
-        <v>48666.666666666599</v>
-      </c>
-      <c r="J13" s="2">
-        <f>SUM(J9:J11)</f>
         <v>48666.666666666599</v>
       </c>
       <c r="K13" s="2">
@@ -931,15 +1246,60 @@
         <v>48666.666666666599</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(M9:M11)</f>
         <v>48666.666666666599</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(N9:N11)</f>
+        <v>48666.666666666599</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" ref="O13:S13" si="2">SUM(O9:O11)</f>
+        <v>48666.666666666599</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="2"/>
+        <v>48666.666666666599</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="2"/>
+        <v>48666.666666666599</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="2"/>
+        <v>48666.666666666599</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="2"/>
+        <v>48666.666666666599</v>
+      </c>
+      <c r="T13" s="2">
+        <f>SUM(T9:T11)</f>
+        <v>48666.666666666599</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" ref="U13:X13" si="3">SUM(U9:U11)</f>
+        <v>48666.666666666599</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" si="3"/>
+        <v>48666.666666666599</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="3"/>
+        <v>48666.666666666599</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="3"/>
+        <v>48666.666666666599</v>
+      </c>
+      <c r="Y13" s="2">
+        <f>SUM(Y9:Y11)</f>
         <v>48666.666666666599</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -952,159 +1312,302 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="B15" s="6">
+        <v>43160</v>
+      </c>
       <c r="C15" s="6">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="D15" s="6">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="E15" s="6">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="F15" s="6">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="G15" s="6">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="H15" s="6">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="I15" s="6">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="J15" s="6">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="K15" s="6">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="L15" s="6">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="M15" s="6">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="N15" s="6">
-        <v>43497</v>
+        <v>43525</v>
+      </c>
+      <c r="O15" s="6">
+        <v>43556</v>
+      </c>
+      <c r="P15" s="6">
+        <v>43586</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>43617</v>
+      </c>
+      <c r="R15" s="6">
+        <v>43647</v>
+      </c>
+      <c r="S15" s="6">
+        <v>43678</v>
+      </c>
+      <c r="T15" s="6">
+        <v>43709</v>
+      </c>
+      <c r="U15" s="6">
+        <v>43739</v>
+      </c>
+      <c r="V15" s="6">
+        <v>43770</v>
+      </c>
+      <c r="W15" s="6">
+        <v>43800</v>
+      </c>
+      <c r="X15" s="6">
+        <v>43831</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>43862</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="B16" s="7">
+        <f>B6-B13</f>
+        <v>-227666.6666666666</v>
+      </c>
       <c r="C16" s="7">
-        <f>C6-C13</f>
-        <v>-152666.6666666666</v>
+        <f t="shared" ref="C16:L16" si="4">C6-C13</f>
+        <v>-48666.666666666599</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" ref="D16:N16" si="2">D6-D13</f>
-        <v>26333.333333333401</v>
+        <f t="shared" si="4"/>
+        <v>-48666.666666666599</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="2"/>
-        <v>26333.333333333401</v>
+        <f t="shared" si="4"/>
+        <v>-48666.666666666599</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>-48666.666666666599</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="4"/>
+        <v>-48666.666666666599</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="4"/>
+        <v>-48666.666666666599</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="4"/>
+        <v>-48666.666666666599</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="4"/>
         <v>50333.333333333401</v>
       </c>
-      <c r="G16" s="7">
-        <f t="shared" si="2"/>
+      <c r="K16" s="7">
+        <f t="shared" si="4"/>
         <v>50333.333333333401</v>
       </c>
-      <c r="H16" s="7">
-        <f t="shared" si="2"/>
+      <c r="L16" s="7">
+        <f t="shared" si="4"/>
         <v>50333.333333333401</v>
       </c>
-      <c r="I16" s="7">
-        <f t="shared" si="2"/>
+      <c r="M16" s="7">
+        <f>M6-M13</f>
         <v>50333.333333333401</v>
       </c>
-      <c r="J16" s="7">
-        <f t="shared" si="2"/>
+      <c r="N16" s="7">
+        <f>N6-N13</f>
         <v>50333.333333333401</v>
       </c>
-      <c r="K16" s="7">
-        <f t="shared" si="2"/>
+      <c r="O16" s="7">
+        <f t="shared" ref="O16:S16" si="5">O6-O13</f>
         <v>50333.333333333401</v>
       </c>
-      <c r="L16" s="7">
-        <f t="shared" si="2"/>
+      <c r="P16" s="7">
+        <f t="shared" si="5"/>
         <v>50333.333333333401</v>
       </c>
-      <c r="M16" s="7">
-        <f t="shared" si="2"/>
+      <c r="Q16" s="7">
+        <f t="shared" si="5"/>
         <v>50333.333333333401</v>
       </c>
-      <c r="N16" s="7">
-        <f t="shared" si="2"/>
+      <c r="R16" s="7">
+        <f t="shared" si="5"/>
         <v>50333.333333333401</v>
       </c>
+      <c r="S16" s="7">
+        <f t="shared" si="5"/>
+        <v>50333.333333333401</v>
+      </c>
+      <c r="T16" s="7">
+        <f>T6-T13</f>
+        <v>50333.333333333401</v>
+      </c>
+      <c r="U16" s="7">
+        <f>U6-U13</f>
+        <v>50333.333333333401</v>
+      </c>
+      <c r="V16" s="7">
+        <f>V6-V13</f>
+        <v>50333.333333333401</v>
+      </c>
+      <c r="W16" s="7">
+        <f>W6-W13</f>
+        <v>50333.333333333401</v>
+      </c>
+      <c r="X16" s="7">
+        <f>X6-X13</f>
+        <v>50333.333333333401</v>
+      </c>
+      <c r="Y16" s="7">
+        <f>Y6-Y13</f>
+        <v>50333.333333333401</v>
+      </c>
     </row>
-    <row r="17" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="B17" s="2">
+        <f>B16</f>
+        <v>-227666.6666666666</v>
+      </c>
       <c r="C17" s="2">
-        <f>C16</f>
-        <v>-152666.6666666666</v>
+        <f t="shared" ref="C17:L17" si="6">B17+C16</f>
+        <v>-276333.3333333332</v>
       </c>
       <c r="D17" s="2">
-        <f>C17+D16</f>
-        <v>-126333.3333333332</v>
+        <f t="shared" si="6"/>
+        <v>-324999.99999999977</v>
       </c>
       <c r="E17" s="2">
-        <f>D17+E16</f>
-        <v>-99999.999999999796</v>
+        <f t="shared" si="6"/>
+        <v>-373666.6666666664</v>
       </c>
       <c r="F17" s="2">
-        <f>E17+F16</f>
-        <v>-49666.666666666395</v>
+        <f t="shared" si="6"/>
+        <v>-422333.33333333302</v>
       </c>
       <c r="G17" s="2">
-        <f>F17+G16</f>
-        <v>666.66666666700621</v>
+        <f t="shared" si="6"/>
+        <v>-470999.99999999965</v>
       </c>
       <c r="H17" s="2">
-        <f>G17+H16</f>
-        <v>51000.000000000407</v>
+        <f t="shared" si="6"/>
+        <v>-519666.66666666628</v>
       </c>
       <c r="I17" s="2">
-        <f>H17+I16</f>
-        <v>101333.33333333381</v>
+        <f t="shared" si="6"/>
+        <v>-568333.33333333291</v>
       </c>
       <c r="J17" s="2">
-        <f>I17+J16</f>
-        <v>151666.66666666721</v>
+        <f t="shared" si="6"/>
+        <v>-517999.99999999953</v>
       </c>
       <c r="K17" s="2">
-        <f>J17+K16</f>
-        <v>202000.00000000061</v>
+        <f t="shared" si="6"/>
+        <v>-467666.66666666616</v>
       </c>
       <c r="L17" s="2">
-        <f>K17+L16</f>
-        <v>252333.33333333401</v>
+        <f t="shared" si="6"/>
+        <v>-417333.33333333279</v>
       </c>
       <c r="M17" s="2">
         <f>L17+M16</f>
-        <v>302666.66666666744</v>
+        <v>-366999.99999999942</v>
       </c>
       <c r="N17" s="2">
-        <f>M17+N16</f>
-        <v>353000.00000000081</v>
+        <f t="shared" ref="N17" si="7">M17+N16</f>
+        <v>-316666.66666666605</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" ref="O17" si="8">N17+O16</f>
+        <v>-266333.33333333267</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" ref="P17" si="9">O17+P16</f>
+        <v>-215999.99999999927</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" ref="Q17" si="10">P17+Q16</f>
+        <v>-165666.66666666587</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" ref="R17" si="11">Q17+R16</f>
+        <v>-115333.33333333247</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" ref="S17" si="12">R17+S16</f>
+        <v>-64999.999999999069</v>
+      </c>
+      <c r="T17" s="2">
+        <f t="shared" ref="T17" si="13">S17+T16</f>
+        <v>-14666.666666665667</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" ref="U17" si="14">T17+U16</f>
+        <v>35666.666666667734</v>
+      </c>
+      <c r="V17" s="2">
+        <f t="shared" ref="V17" si="15">U17+V16</f>
+        <v>86000.000000001135</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" ref="W17" si="16">V17+W16</f>
+        <v>136333.33333333454</v>
+      </c>
+      <c r="X17" s="2">
+        <f t="shared" ref="X17" si="17">W17+X16</f>
+        <v>186666.66666666794</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" ref="Y17" si="18">X17+Y16</f>
+        <v>237000.00000000134</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C13:N13 C6:N6" formulaRange="1"/>
+    <ignoredError sqref="B13:M13 B6:N6 O6:Y7 N13:Y13" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>